--- a/asdf.xlsx
+++ b/asdf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\Documents\Coding\Python\projects\vocabulary_trainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEF25A20-A2A7-4F2B-A233-07A1FD61594C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AF3352-C61D-4292-B6E2-A149D745BEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>ID_ES</t>
-  </si>
-  <si>
-    <t>ID_DE</t>
-  </si>
-  <si>
-    <t>WORD_ES</t>
-  </si>
-  <si>
-    <t>WORD_DE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>CATEGORY</t>
   </si>
   <si>
     <t>aaa</t>
+  </si>
+  <si>
+    <t>WORD</t>
+  </si>
+  <si>
+    <t>TRANSLATION</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>agotado</t>
+  </si>
+  <si>
+    <t>ausverkauft/vergriffen</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>alegre</t>
+  </si>
+  <si>
+    <t>fröhlich</t>
   </si>
 </sst>
 </file>
@@ -439,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,36 +465,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
